--- a/TrainingPlan.xlsx
+++ b/TrainingPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="19110" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="237">
   <si>
     <t>Back ground</t>
   </si>
@@ -987,9 +987,6 @@
     </r>
   </si>
   <si>
-    <t>Part Time</t>
-  </si>
-  <si>
     <t>Windows installation</t>
   </si>
   <si>
@@ -1049,13 +1046,6 @@
    + Status: done (sharing meeting on May 09, 2017)</t>
   </si>
   <si>
-    <t>* Task 02_01: Share experience about hardware investigation and using CFM file to confirm unclear points
-   + Input: HWM &amp; CFM (ECM model)
-   + Output: Investigate_HWM_report_&lt;name&gt; file
-      D/L: May 10, 2017 and May 15, 2017
-   + Status: Done (sharing meeting on May 10, 2017)</t>
-  </si>
-  <si>
     <t>T01</t>
   </si>
   <si>
@@ -1101,20 +1091,6 @@
   </si>
   <si>
     <t>Period (May/B 2017 -&gt; Apr/E 2019)</t>
-  </si>
-  <si>
-    <t>* Task 08_01: Creating TM
-   + Input: GenTMfromChecklist_v2014.08(GeneratingTM tool)
-   + Output:TMs
-   + Status: T.B.D</t>
-  </si>
-  <si>
-    <t>* Task 09_01: Structure test environment
-   + Target:
-       # Using Git/CVS to clone data
-       # Structure test environment: connect IPs
-   + Output: environment which is compiled
-   + Status: T.B.D</t>
   </si>
   <si>
     <t>* Task 10_01: Configure test module
@@ -1138,15 +1114,123 @@
    + Status: T.B.D</t>
   </si>
   <si>
+    <t>Question List</t>
+  </si>
+  <si>
+    <t>* Task 01_03: QA01
+   + Input: Answer questions No.1 -&gt; 6 in QA sheet
+   + Output: 01_Report\QA01_&lt;trainee name&gt; file
+      D/L: Jun 02, 2017
+   + Status: on going</t>
+  </si>
+  <si>
+    <t>* Task 02_01: Share experience about hardware investigation and using CFM file to confirm unclear points
+   + Input: HWM &amp; CFM (ECM model)
+   + Output: 01_Report\Investigate_HWM_report_&lt;trainee name&gt; file
+      D/L: May 10, 2017 and May 15, 2017
+   + Status: done (sharing meeting on May 10, 2017)</t>
+  </si>
+  <si>
+    <t>Mentor_Mentee presentation</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>&lt;Generation&gt;_&lt;Term&gt;Presentation_&lt;your_name&gt;_&lt;your_code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Generation&gt;: xxG</t>
+  </si>
+  <si>
+    <t>&lt;Tern&gt;: FirstTerm, MidTerm, Final</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>1) Introduction: purpose of training, some information about job</t>
+  </si>
+  <si>
+    <t>2) Training plan</t>
+  </si>
+  <si>
+    <t>3) Your current status</t>
+  </si>
+  <si>
+    <t>4) Achievement and Action items</t>
+  </si>
+  <si>
+    <t>5) Interactive Mentor and Mentee</t>
+  </si>
+  <si>
     <t>* Task 05_01: How to use generation tools (commandIF, registerIF)
+   + Status: done (On desk training)</t>
+  </si>
+  <si>
+    <t>* Task 08_01: Creating TM
+   + Input: GenTMfromChecklist_v2014.08(GeneratingTM tool)
+   + Output:TMs
+   + Status: done (On desk training)</t>
+  </si>
+  <si>
+    <t>* Task 09_01: Structure test environment
+   + Target:
+       # Using Git/CVS to clone data
+       # Structure test environment: connect IPs
+   + Input: T.B.D =&gt; Duc-san
+   + Output: environment which is compiled
+   + Status:
+       # Using Git/CVS to clone data =&gt; done (On desk training)
+       # Structure test environment: connect IPs (RESLX) =&gt; done (On desk training)</t>
+  </si>
+  <si>
+    <t>* Task 05_02: How to use doxygen
    + Status: T.B.D</t>
+  </si>
+  <si>
+    <t>* Task 11_01: How to use check coverage
+   + Status: T.B.D</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>We had 1st presentation of 20G Mentor-Mentee for MCU Solution 2</t>
+  </si>
+  <si>
+    <t>group today. But, I stopped the all presentation and suggested to</t>
+  </si>
+  <si>
+    <t>re-do because the contents of all presentation was same, that is,</t>
+  </si>
+  <si>
+    <t>all contents showed very general, like Mentor provide document</t>
+  </si>
+  <si>
+    <t>and Mentee study it and report it.</t>
+  </si>
+  <si>
+    <t>I expected the presentation to show what you want to be (target, not</t>
+  </si>
+  <si>
+    <t>only skill level) and how you do in order to achieve your target. It must</t>
+  </si>
+  <si>
+    <t>be different from each people. Please think what you want to be first,</t>
+  </si>
+  <si>
+    <t>and think what skill you need and skill level in order to be what you want.</t>
+  </si>
+  <si>
+    <t>Please think and recheck your presentation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,6 +1356,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1317,7 +1407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1392,12 +1482,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1480,6 +1596,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1519,17 +1641,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F66"/>
+  <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1871,64 +2008,64 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="13" t="s">
         <v>77</v>
       </c>
@@ -1937,10 +2074,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="14" t="s">
         <v>157</v>
       </c>
@@ -1949,10 +2086,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="14" t="s">
         <v>154</v>
       </c>
@@ -1961,10 +2098,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="15" t="s">
         <v>140</v>
       </c>
@@ -1973,10 +2110,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="14" t="s">
         <v>158</v>
       </c>
@@ -2147,10 +2284,10 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2159,10 +2296,10 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="14" t="s">
         <v>130</v>
       </c>
@@ -2171,10 +2308,10 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="14" t="s">
         <v>125</v>
       </c>
@@ -2183,10 +2320,10 @@
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="14" t="s">
         <v>154</v>
       </c>
@@ -2195,10 +2332,10 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="15" t="s">
         <v>140</v>
       </c>
@@ -2207,10 +2344,10 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="14" t="s">
         <v>158</v>
       </c>
@@ -2219,10 +2356,10 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="14" t="s">
         <v>127</v>
       </c>
@@ -2280,32 +2417,32 @@
         <v>4</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -2313,58 +2450,165 @@
         <v>5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="31"/>
+        <v>176</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="31"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="33"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="31"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="3" t="s">
+      <c r="E65" s="33"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" s="31"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="31"/>
+      <c r="E66" s="33"/>
+    </row>
+    <row r="69" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="10">
+        <v>6</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D80" s="51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D81" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D82" s="51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D83" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D84" s="51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D85" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D86" s="51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D87" s="51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D88" s="51" t="s">
+        <v>236</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2405,7 +2649,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2419,14 +2663,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2443,12 +2687,12 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2487,12 +2731,12 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="72.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -2531,12 +2775,12 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -2724,17 +2968,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="34"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2760,15 +3004,15 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2840,15 +3084,15 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -2920,15 +3164,15 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="2:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -3046,10 +3290,10 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
@@ -3067,10 +3311,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="4" t="s">
         <v>62</v>
       </c>
@@ -3194,7 +3438,7 @@
   <dimension ref="B2:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3207,7 +3451,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="23" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -3386,9 +3630,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H40"/>
+  <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3406,17 +3650,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -3442,136 +3686,129 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
+    <row r="6" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>211</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3579,75 +3816,68 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>209</v>
+        <v>224</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="24" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>206</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3656,188 +3886,228 @@
     </row>
     <row r="18" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>207</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>223</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="4" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+    <row r="23" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="4" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>202</v>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="26" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B21:C21"/>
+  <mergeCells count="13">
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
   </mergeCells>
